--- a/data/trans_dic/P20D2_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Edad-trans_dic.xlsx
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05929505074574655</v>
+        <v>0.05936765539302082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1069500203081839</v>
+        <v>0.1156270808355003</v>
       </c>
     </row>
     <row r="12">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1</v>
+        <v>0.8413104796993868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5322567424787329</v>
+        <v>0.5067519701075658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5760483022207644</v>
+        <v>0.5515785909497383</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3609701809600652</v>
+        <v>0.3891744113447911</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1858766768635725</v>
+        <v>0.183391929036551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3838968074261777</v>
+        <v>0.382896236350805</v>
       </c>
     </row>
     <row r="15">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8734149201212416</v>
+        <v>0.8766126270486562</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6060808983601786</v>
+        <v>0.5725560030642267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7099477414097597</v>
+        <v>0.7076075403726764</v>
       </c>
     </row>
     <row r="16">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7929949346993899</v>
+        <v>0.79299493469939</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3483575258097385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6253415041905628</v>
+        <v>0.6253415041905629</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5350239116684302</v>
+        <v>0.5408942661252315</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1606045897968132</v>
+        <v>0.1590810333419206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.456065218712778</v>
+        <v>0.4448530503526325</v>
       </c>
     </row>
     <row r="18">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9466283149863411</v>
+        <v>0.9506396526303277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6018281232507801</v>
+        <v>0.5873011948000042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7725973582310873</v>
+        <v>0.7615124525577031</v>
       </c>
     </row>
     <row r="19">
@@ -828,10 +828,10 @@
         <v>0.8388972042120481</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.5073328839669851</v>
+        <v>0.5073328839669852</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7509362230421932</v>
+        <v>0.7509362230421933</v>
       </c>
     </row>
     <row r="20">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6629122257445019</v>
+        <v>0.6511139700251878</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.184591646394536</v>
+        <v>0.186197049009509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5649915369724181</v>
+        <v>0.5954590559522668</v>
       </c>
     </row>
     <row r="21">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9391325888255463</v>
+        <v>0.9404633220706902</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8154963450684444</v>
+        <v>0.8122026847033118</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8681724177547788</v>
+        <v>0.8750825613225496</v>
       </c>
     </row>
     <row r="22">
@@ -883,10 +883,10 @@
         <v>0.6123164052452191</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4315660970546366</v>
+        <v>0.4315660970546367</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4982755143719582</v>
+        <v>0.4982755143719583</v>
       </c>
     </row>
     <row r="23">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2440835715790047</v>
+        <v>0.2287800821073509</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2457000516006406</v>
+        <v>0.2171831040488889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.321774972544643</v>
+        <v>0.3230715407507205</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9143833254954843</v>
+        <v>0.9132301493525499</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6940346141666778</v>
+        <v>0.6651630962046381</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6984618033009256</v>
+        <v>0.6835437754133206</v>
       </c>
     </row>
     <row r="25">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
     </row>
     <row r="26">
@@ -952,13 +952,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
     </row>
     <row r="27">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="28">
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1577</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="15">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5942</v>
+        <v>4999</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4685</v>
+        <v>4461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8494</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="16">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6382</v>
+        <v>6881</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2685</v>
+        <v>2649</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12334</v>
+        <v>12302</v>
       </c>
     </row>
     <row r="19">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15443</v>
+        <v>15499</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8756</v>
+        <v>8272</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22809</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="20">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9544</v>
+        <v>9649</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13060</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="23">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16887</v>
+        <v>16958</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6498</v>
+        <v>6341</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>22124</v>
+        <v>21807</v>
       </c>
     </row>
     <row r="24">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10086</v>
+        <v>9907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11700</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="27">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14289</v>
+        <v>14309</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4480</v>
+        <v>4462</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17979</v>
+        <v>18122</v>
       </c>
     </row>
     <row r="28">
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1612</v>
+        <v>1511</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2775</v>
+        <v>2453</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5760</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="31">
@@ -1555,13 +1555,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6040</v>
+        <v>6033</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7838</v>
+        <v>7512</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12502</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="32">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
     </row>
     <row r="35">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
     </row>
     <row r="36">
